--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1104\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1112\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30863539-E111-42A6-9B22-7AAA8A3C661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA89216A-E77B-4B9F-B91D-ECE86252ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1112\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA89216A-E77B-4B9F-B91D-ECE86252ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31247B5F-9E45-485C-9E09-7CD7A4276BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Page" sheetId="1" r:id="rId1"/>
+    <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>PAGE_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_ORTHO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -553,6 +561,34 @@
         <v>360</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>640</v>
+      </c>
+      <c r="D11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1112\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31247B5F-9E45-485C-9E09-7CD7A4276BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C1D531-EC45-4030-922A-2C565F18A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -79,11 +79,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAGE_TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAGE_ORTHO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TOOLTIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,16 +412,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -505,7 +505,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -519,7 +519,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -561,26 +561,26 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C1D531-EC45-4030-922A-2C565F18A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{778AC34A-AB3A-4D96-A245-81F1B76F57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAGE_TOOLTIP</t>
+    <t>PAGE_ITEMINFO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778AC34A-AB3A-4D96-A245-81F1B76F57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A557C3AA-0D8A-4151-8C9E-B42625BA003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAGE_LEVELUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAGE_SKILL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,6 +80,10 @@
   </si>
   <si>
     <t>PAGE_ITEMINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_OPTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>640</v>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A557C3AA-0D8A-4151-8C9E-B42625BA003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6471ABC7-566B-42BF-8A5A-9670C841D78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>PAGE_OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,6 +593,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6471ABC7-566B-42BF-8A5A-9670C841D78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A150D5C1-CC00-48E3-B25A-552BE98D5494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A150D5C1-CC00-48E3-B25A-552BE98D5494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80940062-3764-4CE4-B3FE-65A16D2F330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>PAGE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_EFFECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,6 +611,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>640</v>
+      </c>
+      <c r="D14">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-25_Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A557C3AA-0D8A-4151-8C9E-B42625BA003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80940062-3764-4CE4-B3FE-65A16D2F330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>PAGE_OPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_EFFECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,6 +597,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>640</v>
+      </c>
+      <c r="D14">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80940062-3764-4CE4-B3FE-65A16D2F330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4278440A-22CE-4E31-AC22-5045D270B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="2475" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>PAGE_EFFECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TALKING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_POPUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_INFORM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,6 +637,48 @@
         <v>360</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>640</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>640</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>640</v>
+      </c>
+      <c r="D17">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4278440A-22CE-4E31-AC22-5045D270B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BA9A46-D82D-4B70-B2DA-C341424BF931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="2475" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="1395" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>PAGE_INFORM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_SHOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_CHEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,6 +687,34 @@
         <v>360</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>640</v>
+      </c>
+      <c r="D18">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>640</v>
+      </c>
+      <c r="D19">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BA9A46-D82D-4B70-B2DA-C341424BF931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0C0F22-BED3-4824-8A27-51AAEC18A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1395" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1410" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>PAGE_CHEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_TELEPOT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -715,6 +719,20 @@
         <v>360</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>640</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B0C0F22-BED3-4824-8A27-51AAEC18A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EF1A24-6609-430E-A435-7BB17A9BD928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1410" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PAGE_SKILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAGE_ORTHO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +113,9 @@
   <si>
     <t>PAGE_TELEPOT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_COMMON</t>
   </si>
 </sst>
 </file>
@@ -443,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>640</v>
@@ -584,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>640</v>
@@ -598,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -612,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -626,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -640,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>640</v>
@@ -654,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>640</v>
@@ -668,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>640</v>
@@ -682,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>640</v>
@@ -696,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>640</v>
@@ -710,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>640</v>
@@ -724,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>640</v>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EF1A24-6609-430E-A435-7BB17A9BD928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBF0B5D-EE5F-4AF8-BE67-0DDD0F3E263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBF0B5D-EE5F-4AF8-BE67-0DDD0F3E263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A299ED5-3DB6-40F0-8578-707F9C25A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>PAGE_COMMON</t>
+  </si>
+  <si>
+    <t>PAGE_ACHIEVMENT</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,6 +735,20 @@
         <v>360</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>640</v>
+      </c>
+      <c r="D21">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
+++ b/Framework_DX11/Tools/Bin/DataFiles/UIPageSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Tools\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A299ED5-3DB6-40F0-8578-707F9C25A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89509D8C-DEFC-4B00-8460-9214A252BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIPageSpec" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>PAGE_ACHIEVMENT</t>
+  </si>
+  <si>
+    <t>PAGE_TUTORIAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,6 +753,20 @@
         <v>360</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>640</v>
+      </c>
+      <c r="D22">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
